--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ucn2-Crhr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ucn2-Crhr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.18795950678464</v>
+        <v>0.3617913333333333</v>
       </c>
       <c r="H2">
-        <v>0.18795950678464</v>
+        <v>1.085374</v>
       </c>
       <c r="I2">
-        <v>0.111487227571542</v>
+        <v>0.04578080100647625</v>
       </c>
       <c r="J2">
-        <v>0.111487227571542</v>
+        <v>0.06509043373192533</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.292000878637594</v>
+        <v>0.471861</v>
       </c>
       <c r="N2">
-        <v>0.292000878637594</v>
+        <v>1.415583</v>
       </c>
       <c r="O2">
-        <v>0.07686426846256664</v>
+        <v>0.1161318617815716</v>
       </c>
       <c r="P2">
-        <v>0.07686426846256664</v>
+        <v>0.1646379375675581</v>
       </c>
       <c r="Q2">
-        <v>0.05488434112940369</v>
+        <v>0.170715220338</v>
       </c>
       <c r="R2">
-        <v>0.05488434112940369</v>
+        <v>1.536436983042</v>
       </c>
       <c r="S2">
-        <v>0.008569384190206268</v>
+        <v>0.005316609654733736</v>
       </c>
       <c r="T2">
-        <v>0.008569384190206268</v>
+        <v>0.010716354765002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.18795950678464</v>
+        <v>0.3617913333333333</v>
       </c>
       <c r="H3">
-        <v>0.18795950678464</v>
+        <v>1.085374</v>
       </c>
       <c r="I3">
-        <v>0.111487227571542</v>
+        <v>0.04578080100647625</v>
       </c>
       <c r="J3">
-        <v>0.111487227571542</v>
+        <v>0.06509043373192533</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.50691485266609</v>
+        <v>3.5912875</v>
       </c>
       <c r="N3">
-        <v>3.50691485266609</v>
+        <v>7.182575</v>
       </c>
       <c r="O3">
-        <v>0.9231357315374333</v>
+        <v>0.8838681382184285</v>
       </c>
       <c r="P3">
-        <v>0.9231357315374333</v>
+        <v>0.8353620624324419</v>
       </c>
       <c r="Q3">
-        <v>0.6591579860428467</v>
+        <v>1.299296693008333</v>
       </c>
       <c r="R3">
-        <v>0.6591579860428467</v>
+        <v>7.795780158049999</v>
       </c>
       <c r="S3">
-        <v>0.1029178433813358</v>
+        <v>0.04046419135174252</v>
       </c>
       <c r="T3">
-        <v>0.1029178433813358</v>
+        <v>0.05437407896692333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.128933471797781</v>
+        <v>0.2615406666666666</v>
       </c>
       <c r="H4">
-        <v>0.128933471797781</v>
+        <v>0.7846219999999999</v>
       </c>
       <c r="I4">
-        <v>0.07647623447096044</v>
+        <v>0.03309515765745578</v>
       </c>
       <c r="J4">
-        <v>0.07647623447096044</v>
+        <v>0.04705418251737255</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.292000878637594</v>
+        <v>0.471861</v>
       </c>
       <c r="N4">
-        <v>0.292000878637594</v>
+        <v>1.415583</v>
       </c>
       <c r="O4">
-        <v>0.07686426846256664</v>
+        <v>0.1161318617815716</v>
       </c>
       <c r="P4">
-        <v>0.07686426846256664</v>
+        <v>0.1646379375675581</v>
       </c>
       <c r="Q4">
-        <v>0.0376486870507475</v>
+        <v>0.123410840514</v>
       </c>
       <c r="R4">
-        <v>0.0376486870507475</v>
+        <v>1.110697564626</v>
       </c>
       <c r="S4">
-        <v>0.005878289817382096</v>
+        <v>0.003843402274714977</v>
       </c>
       <c r="T4">
-        <v>0.005878289817382096</v>
+        <v>0.007746903563587666</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.128933471797781</v>
+        <v>0.2615406666666666</v>
       </c>
       <c r="H5">
-        <v>0.128933471797781</v>
+        <v>0.7846219999999999</v>
       </c>
       <c r="I5">
-        <v>0.07647623447096044</v>
+        <v>0.03309515765745578</v>
       </c>
       <c r="J5">
-        <v>0.07647623447096044</v>
+        <v>0.04705418251737255</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.50691485266609</v>
+        <v>3.5912875</v>
       </c>
       <c r="N5">
-        <v>3.50691485266609</v>
+        <v>7.182575</v>
       </c>
       <c r="O5">
-        <v>0.9231357315374333</v>
+        <v>0.8838681382184285</v>
       </c>
       <c r="P5">
-        <v>0.9231357315374333</v>
+        <v>0.8353620624324419</v>
       </c>
       <c r="Q5">
-        <v>0.4521587072534426</v>
+        <v>0.9392677269416666</v>
       </c>
       <c r="R5">
-        <v>0.4521587072534426</v>
+        <v>5.63560636165</v>
       </c>
       <c r="S5">
-        <v>0.07059794465357834</v>
+        <v>0.02925175538274081</v>
       </c>
       <c r="T5">
-        <v>0.07059794465357834</v>
+        <v>0.03930727895378489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0434382702836885</v>
+        <v>0.091943</v>
       </c>
       <c r="H6">
-        <v>0.0434382702836885</v>
+        <v>0.275829</v>
       </c>
       <c r="I6">
-        <v>0.02576518957341447</v>
+        <v>0.01163439750796992</v>
       </c>
       <c r="J6">
-        <v>0.02576518957341447</v>
+        <v>0.01654160616141831</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.292000878637594</v>
+        <v>0.471861</v>
       </c>
       <c r="N6">
-        <v>0.292000878637594</v>
+        <v>1.415583</v>
       </c>
       <c r="O6">
-        <v>0.07686426846256664</v>
+        <v>0.1161318617815716</v>
       </c>
       <c r="P6">
-        <v>0.07686426846256664</v>
+        <v>0.1646379375675581</v>
       </c>
       <c r="Q6">
-        <v>0.01268401308933433</v>
+        <v>0.043384315923</v>
       </c>
       <c r="R6">
-        <v>0.01268401308933433</v>
+        <v>0.390458843307</v>
       </c>
       <c r="S6">
-        <v>0.001980422448359852</v>
+        <v>0.001351124243307424</v>
       </c>
       <c r="T6">
-        <v>0.001980422448359852</v>
+        <v>0.002723375922470721</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0434382702836885</v>
+        <v>0.091943</v>
       </c>
       <c r="H7">
-        <v>0.0434382702836885</v>
+        <v>0.275829</v>
       </c>
       <c r="I7">
-        <v>0.02576518957341447</v>
+        <v>0.01163439750796992</v>
       </c>
       <c r="J7">
-        <v>0.02576518957341447</v>
+        <v>0.01654160616141831</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.50691485266609</v>
+        <v>3.5912875</v>
       </c>
       <c r="N7">
-        <v>3.50691485266609</v>
+        <v>7.182575</v>
       </c>
       <c r="O7">
-        <v>0.9231357315374333</v>
+        <v>0.8838681382184285</v>
       </c>
       <c r="P7">
-        <v>0.9231357315374333</v>
+        <v>0.8353620624324419</v>
       </c>
       <c r="Q7">
-        <v>0.1523343152319912</v>
+        <v>0.3301937466125</v>
       </c>
       <c r="R7">
-        <v>0.1523343152319912</v>
+        <v>1.981162479675</v>
       </c>
       <c r="S7">
-        <v>0.02378476712505461</v>
+        <v>0.01028327326466249</v>
       </c>
       <c r="T7">
-        <v>0.02378476712505461</v>
+        <v>0.01381823023894758</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.32559736267843</v>
+        <v>0.1542133333333333</v>
       </c>
       <c r="H8">
-        <v>1.32559736267843</v>
+        <v>0.46264</v>
       </c>
       <c r="I8">
-        <v>0.7862713483840831</v>
+        <v>0.01951403827402921</v>
       </c>
       <c r="J8">
-        <v>0.7862713483840831</v>
+        <v>0.02774475734791688</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.292000878637594</v>
+        <v>0.471861</v>
       </c>
       <c r="N8">
-        <v>0.292000878637594</v>
+        <v>1.415583</v>
       </c>
       <c r="O8">
-        <v>0.07686426846256664</v>
+        <v>0.1161318617815716</v>
       </c>
       <c r="P8">
-        <v>0.07686426846256664</v>
+        <v>0.1646379375675581</v>
       </c>
       <c r="Q8">
-        <v>0.3870755946217789</v>
+        <v>0.07276725768</v>
       </c>
       <c r="R8">
-        <v>0.3870755946217789</v>
+        <v>0.6549053191200001</v>
       </c>
       <c r="S8">
-        <v>0.06043617200661842</v>
+        <v>0.002266201595639858</v>
       </c>
       <c r="T8">
-        <v>0.06043617200661842</v>
+        <v>0.004567839628073388</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,185 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1542133333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.46264</v>
+      </c>
+      <c r="I9">
+        <v>0.01951403827402921</v>
+      </c>
+      <c r="J9">
+        <v>0.02774475734791688</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.5912875</v>
+      </c>
+      <c r="N9">
+        <v>7.182575</v>
+      </c>
+      <c r="O9">
+        <v>0.8838681382184285</v>
+      </c>
+      <c r="P9">
+        <v>0.8353620624324419</v>
+      </c>
+      <c r="Q9">
+        <v>0.5538244163333333</v>
+      </c>
+      <c r="R9">
+        <v>3.322946498</v>
+      </c>
+      <c r="S9">
+        <v>0.01724783667838935</v>
+      </c>
+      <c r="T9">
+        <v>0.02317691771984349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.32559736267843</v>
-      </c>
-      <c r="H9">
-        <v>1.32559736267843</v>
-      </c>
-      <c r="I9">
-        <v>0.7862713483840831</v>
-      </c>
-      <c r="J9">
-        <v>0.7862713483840831</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>3.50691485266609</v>
-      </c>
-      <c r="N9">
-        <v>3.50691485266609</v>
-      </c>
-      <c r="O9">
-        <v>0.9231357315374333</v>
-      </c>
-      <c r="P9">
-        <v>0.9231357315374333</v>
-      </c>
-      <c r="Q9">
-        <v>4.648757079831983</v>
-      </c>
-      <c r="R9">
-        <v>4.648757079831983</v>
-      </c>
-      <c r="S9">
-        <v>0.7258351763774646</v>
-      </c>
-      <c r="T9">
-        <v>0.7258351763774646</v>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.0331985</v>
+      </c>
+      <c r="H10">
+        <v>14.066397</v>
+      </c>
+      <c r="I10">
+        <v>0.8899756055540688</v>
+      </c>
+      <c r="J10">
+        <v>0.8435690202413669</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.471861</v>
+      </c>
+      <c r="N10">
+        <v>1.415583</v>
+      </c>
+      <c r="O10">
+        <v>0.1161318617815716</v>
+      </c>
+      <c r="P10">
+        <v>0.1646379375675581</v>
+      </c>
+      <c r="Q10">
+        <v>3.3186920774085</v>
+      </c>
+      <c r="R10">
+        <v>19.912152464451</v>
+      </c>
+      <c r="S10">
+        <v>0.1033545240131756</v>
+      </c>
+      <c r="T10">
+        <v>0.1388834636884243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.0331985</v>
+      </c>
+      <c r="H11">
+        <v>14.066397</v>
+      </c>
+      <c r="I11">
+        <v>0.8899756055540688</v>
+      </c>
+      <c r="J11">
+        <v>0.8435690202413669</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.5912875</v>
+      </c>
+      <c r="N11">
+        <v>7.182575</v>
+      </c>
+      <c r="O11">
+        <v>0.8838681382184285</v>
+      </c>
+      <c r="P11">
+        <v>0.8353620624324419</v>
+      </c>
+      <c r="Q11">
+        <v>25.25823785806875</v>
+      </c>
+      <c r="R11">
+        <v>101.032951432275</v>
+      </c>
+      <c r="S11">
+        <v>0.7866210815408933</v>
+      </c>
+      <c r="T11">
+        <v>0.7046855565529426</v>
       </c>
     </row>
   </sheetData>
